--- a/Azure Storage Account Map/Table.xlsx
+++ b/Azure Storage Account Map/Table.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tihanewi\Downloads\ApexVisual.F1_2020\Azure Storage Account Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C64BB7D-FE63-4B59-9E10-E4F476ACDED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6014C5D-D5B1-45F2-AE25-F47EE39A8A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C7C1AAB-8D95-499C-8609-EB8A2137C83A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{1C7C1AAB-8D95-499C-8609-EB8A2137C83A}"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="useraccounts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
